--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H2">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J2">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.15931897428504</v>
+        <v>3.078423333333333</v>
       </c>
       <c r="N2">
-        <v>1.15931897428504</v>
+        <v>9.23527</v>
       </c>
       <c r="O2">
-        <v>0.1262303591238103</v>
+        <v>0.2543225865010234</v>
       </c>
       <c r="P2">
-        <v>0.1262303591238103</v>
+        <v>0.2543225865010234</v>
       </c>
       <c r="Q2">
-        <v>11.8338092771182</v>
+        <v>0.06321439700888888</v>
       </c>
       <c r="R2">
-        <v>11.8338092771182</v>
+        <v>0.56892957308</v>
       </c>
       <c r="S2">
-        <v>0.1229935764920069</v>
+        <v>0.0004908768247966415</v>
       </c>
       <c r="T2">
-        <v>0.1229935764920069</v>
+        <v>0.0004908768247966415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H3">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J3">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.54603063196517</v>
+        <v>4.578777</v>
       </c>
       <c r="N3">
-        <v>4.54603063196517</v>
+        <v>13.736331</v>
       </c>
       <c r="O3">
-        <v>0.4949863600867062</v>
+        <v>0.3782736432128339</v>
       </c>
       <c r="P3">
-        <v>0.4949863600867062</v>
+        <v>0.3782736432128339</v>
       </c>
       <c r="Q3">
-        <v>46.40384627517186</v>
+        <v>0.094023659436</v>
       </c>
       <c r="R3">
-        <v>46.40384627517186</v>
+        <v>0.846212934924</v>
       </c>
       <c r="S3">
-        <v>0.4822939835108241</v>
+        <v>0.0007301190485644357</v>
       </c>
       <c r="T3">
-        <v>0.4822939835108241</v>
+        <v>0.0007301190485644357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H4">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I4">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J4">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5744089788437849</v>
+        <v>0.8728403333333333</v>
       </c>
       <c r="N4">
-        <v>0.5744089788437849</v>
+        <v>2.618521</v>
       </c>
       <c r="O4">
-        <v>0.06254348741950697</v>
+        <v>0.07210931932983509</v>
       </c>
       <c r="P4">
-        <v>0.06254348741950697</v>
+        <v>0.07210931932983509</v>
       </c>
       <c r="Q4">
-        <v>5.863309799525712</v>
+        <v>0.01792348529822222</v>
       </c>
       <c r="R4">
-        <v>5.863309799525712</v>
+        <v>0.161311367684</v>
       </c>
       <c r="S4">
-        <v>0.0609397553599846</v>
+        <v>0.0001391806925128693</v>
       </c>
       <c r="T4">
-        <v>0.0609397553599846</v>
+        <v>0.0001391806925128693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.2075524852133</v>
+        <v>0.02053466666666667</v>
       </c>
       <c r="H5">
-        <v>10.2075524852133</v>
+        <v>0.061604</v>
       </c>
       <c r="I5">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="J5">
-        <v>0.9743581286287185</v>
+        <v>0.001930134604048101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.90439475434115</v>
+        <v>3.574363333333334</v>
       </c>
       <c r="N5">
-        <v>2.90439475434115</v>
+        <v>10.72309</v>
       </c>
       <c r="O5">
-        <v>0.3162397933699765</v>
+        <v>0.2952944509563076</v>
       </c>
       <c r="P5">
-        <v>0.3162397933699765</v>
+        <v>0.2952944509563076</v>
       </c>
       <c r="Q5">
-        <v>29.64676189271548</v>
+        <v>0.07339835959555556</v>
       </c>
       <c r="R5">
-        <v>29.64676189271548</v>
+        <v>0.66058523636</v>
       </c>
       <c r="S5">
-        <v>0.3081308132659029</v>
+        <v>0.0005699580381741541</v>
       </c>
       <c r="T5">
-        <v>0.3081308132659029</v>
+        <v>0.0005699580381741541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.268628895424528</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H6">
-        <v>0.268628895424528</v>
+        <v>30.823943</v>
       </c>
       <c r="I6">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="J6">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.15931897428504</v>
+        <v>3.078423333333333</v>
       </c>
       <c r="N6">
-        <v>1.15931897428504</v>
+        <v>9.23527</v>
       </c>
       <c r="O6">
-        <v>0.1262303591238103</v>
+        <v>0.2543225865010234</v>
       </c>
       <c r="P6">
-        <v>0.1262303591238103</v>
+        <v>0.2543225865010234</v>
       </c>
       <c r="Q6">
-        <v>0.3114265755068871</v>
+        <v>31.62971511884556</v>
       </c>
       <c r="R6">
-        <v>0.3114265755068871</v>
+        <v>284.66743606961</v>
       </c>
       <c r="S6">
-        <v>0.003236782631803396</v>
+        <v>0.2456132599758565</v>
       </c>
       <c r="T6">
-        <v>0.003236782631803396</v>
+        <v>0.2456132599758565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.268628895424528</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H7">
-        <v>0.268628895424528</v>
+        <v>30.823943</v>
       </c>
       <c r="I7">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="J7">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.54603063196517</v>
+        <v>4.578777</v>
       </c>
       <c r="N7">
-        <v>4.54603063196517</v>
+        <v>13.736331</v>
       </c>
       <c r="O7">
-        <v>0.4949863600867062</v>
+        <v>0.3782736432128339</v>
       </c>
       <c r="P7">
-        <v>0.4949863600867062</v>
+        <v>0.3782736432128339</v>
       </c>
       <c r="Q7">
-        <v>1.221195187230873</v>
+        <v>47.04532041923699</v>
       </c>
       <c r="R7">
-        <v>1.221195187230873</v>
+        <v>423.407883773133</v>
       </c>
       <c r="S7">
-        <v>0.01269237657588208</v>
+        <v>0.3653195886008116</v>
       </c>
       <c r="T7">
-        <v>0.01269237657588208</v>
+        <v>0.3653195886008116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.268628895424528</v>
+        <v>10.27464766666667</v>
       </c>
       <c r="H8">
-        <v>0.268628895424528</v>
+        <v>30.823943</v>
       </c>
       <c r="I8">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="J8">
-        <v>0.02564187137128136</v>
+        <v>0.9657548051669733</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5744089788437849</v>
+        <v>0.8728403333333333</v>
       </c>
       <c r="N8">
-        <v>0.5744089788437849</v>
+        <v>2.618521</v>
       </c>
       <c r="O8">
-        <v>0.06254348741950697</v>
+        <v>0.07210931932983509</v>
       </c>
       <c r="P8">
-        <v>0.06254348741950697</v>
+        <v>0.07210931932983509</v>
       </c>
       <c r="Q8">
-        <v>0.154302849508737</v>
+        <v>8.968126894255889</v>
       </c>
       <c r="R8">
-        <v>0.154302849508737</v>
+        <v>80.713142048303</v>
       </c>
       <c r="S8">
-        <v>0.001603732059522352</v>
+        <v>0.06963992164010796</v>
       </c>
       <c r="T8">
-        <v>0.001603732059522352</v>
+        <v>0.06963992164010796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.27464766666667</v>
+      </c>
+      <c r="H9">
+        <v>30.823943</v>
+      </c>
+      <c r="I9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="J9">
+        <v>0.9657548051669733</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.574363333333334</v>
+      </c>
+      <c r="N9">
+        <v>10.72309</v>
+      </c>
+      <c r="O9">
+        <v>0.2952944509563076</v>
+      </c>
+      <c r="P9">
+        <v>0.2952944509563076</v>
+      </c>
+      <c r="Q9">
+        <v>36.72532388265223</v>
+      </c>
+      <c r="R9">
+        <v>330.52791494387</v>
+      </c>
+      <c r="S9">
+        <v>0.2851820349501972</v>
+      </c>
+      <c r="T9">
+        <v>0.2851820349501972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.031398</v>
+      </c>
+      <c r="I10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J10">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.078423333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.23527</v>
+      </c>
+      <c r="O10">
+        <v>0.2543225865010234</v>
+      </c>
+      <c r="P10">
+        <v>0.2543225865010234</v>
+      </c>
+      <c r="Q10">
+        <v>1.058359889717778</v>
+      </c>
+      <c r="R10">
+        <v>9.525239007459998</v>
+      </c>
+      <c r="S10">
+        <v>0.008218449700370211</v>
+      </c>
+      <c r="T10">
+        <v>0.008218449700370209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.268628895424528</v>
-      </c>
-      <c r="H9">
-        <v>0.268628895424528</v>
-      </c>
-      <c r="I9">
-        <v>0.02564187137128136</v>
-      </c>
-      <c r="J9">
-        <v>0.02564187137128136</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.90439475434115</v>
-      </c>
-      <c r="N9">
-        <v>2.90439475434115</v>
-      </c>
-      <c r="O9">
-        <v>0.3162397933699765</v>
-      </c>
-      <c r="P9">
-        <v>0.3162397933699765</v>
-      </c>
-      <c r="Q9">
-        <v>0.7802043547354565</v>
-      </c>
-      <c r="R9">
-        <v>0.7802043547354565</v>
-      </c>
-      <c r="S9">
-        <v>0.008108980104073533</v>
-      </c>
-      <c r="T9">
-        <v>0.008108980104073533</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.031398</v>
+      </c>
+      <c r="I11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J11">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.578777</v>
+      </c>
+      <c r="N11">
+        <v>13.736331</v>
+      </c>
+      <c r="O11">
+        <v>0.3782736432128339</v>
+      </c>
+      <c r="P11">
+        <v>0.3782736432128339</v>
+      </c>
+      <c r="Q11">
+        <v>1.574180480082</v>
+      </c>
+      <c r="R11">
+        <v>14.167624320738</v>
+      </c>
+      <c r="S11">
+        <v>0.01222393556345792</v>
+      </c>
+      <c r="T11">
+        <v>0.01222393556345792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.031398</v>
+      </c>
+      <c r="I12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J12">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8728403333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.618521</v>
+      </c>
+      <c r="O12">
+        <v>0.07210931932983509</v>
+      </c>
+      <c r="P12">
+        <v>0.07210931932983509</v>
+      </c>
+      <c r="Q12">
+        <v>0.3000819247064444</v>
+      </c>
+      <c r="R12">
+        <v>2.700737322358</v>
+      </c>
+      <c r="S12">
+        <v>0.002330216997214278</v>
+      </c>
+      <c r="T12">
+        <v>0.002330216997214277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3437993333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.031398</v>
+      </c>
+      <c r="I13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="J13">
+        <v>0.03231506022897868</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.574363333333334</v>
+      </c>
+      <c r="N13">
+        <v>10.72309</v>
+      </c>
+      <c r="O13">
+        <v>0.2952944509563076</v>
+      </c>
+      <c r="P13">
+        <v>0.2952944509563076</v>
+      </c>
+      <c r="Q13">
+        <v>1.228863731091111</v>
+      </c>
+      <c r="R13">
+        <v>11.05977357982</v>
+      </c>
+      <c r="S13">
+        <v>0.009542457967936274</v>
+      </c>
+      <c r="T13">
+        <v>0.00954245796793627</v>
       </c>
     </row>
   </sheetData>
